--- a/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构专任教师数.xlsx
+++ b/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构专任教师数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,550 +518,220 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.9728</v>
+        <v>3.6049</v>
       </c>
       <c r="C2" t="n">
-        <v>10.697</v>
+        <v>11.9437</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9916</v>
+        <v>0.8117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3623</v>
+        <v>0.2349</v>
       </c>
       <c r="F2" t="n">
-        <v>0.636</v>
+        <v>0.6981000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>10.6385</v>
+        <v>9.1966</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7177</v>
+        <v>1.0186</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7206</v>
+        <v>0.6669</v>
       </c>
       <c r="J2" t="n">
-        <v>10.0124</v>
+        <v>8.797000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>1.081</v>
+        <v>1.8909</v>
       </c>
       <c r="L2" t="n">
-        <v>5.3219</v>
+        <v>4.1735</v>
       </c>
       <c r="M2" t="n">
-        <v>8.9848</v>
+        <v>10.4651</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2638</v>
+        <v>0.1647</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3805</v>
+        <v>0.5006</v>
       </c>
       <c r="P2" t="n">
-        <v>23.433</v>
+        <v>24.2299</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.0975</v>
+        <v>3.0896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.773</v>
+        <v>3.7844</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8642</v>
+        <v>15.596</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5976</v>
+        <v>0.9579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2636</v>
+        <v>0.1882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.597</v>
+        <v>0.8002</v>
       </c>
       <c r="G3" t="n">
-        <v>10.8821</v>
+        <v>9.4474</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6204</v>
+        <v>1.1281</v>
       </c>
       <c r="I3" t="n">
-        <v>0.72</v>
+        <v>0.7965</v>
       </c>
       <c r="J3" t="n">
-        <v>10.1516</v>
+        <v>8.954599999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>1.3587</v>
+        <v>3.3833</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7582</v>
+        <v>4.0421</v>
       </c>
       <c r="M3" t="n">
-        <v>10.5466</v>
+        <v>13.8416</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4669</v>
+        <v>0.3046</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8984</v>
+        <v>0.6063</v>
       </c>
       <c r="P3" t="n">
-        <v>25.6004</v>
+        <v>29.8332</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.8541</v>
+        <v>4.7898</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.8558</v>
+        <v>3.4041</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6996</v>
+        <v>15.1358</v>
       </c>
       <c r="D4" t="n">
-        <v>1.2824</v>
+        <v>0.8231000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1497</v>
+        <v>0.197</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6395999999999999</v>
+        <v>0.8149</v>
       </c>
       <c r="G4" t="n">
-        <v>10.3116</v>
+        <v>8.7761</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6293</v>
+        <v>1.1067</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8323</v>
+        <v>0.9303</v>
       </c>
       <c r="J4" t="n">
-        <v>9.8727</v>
+        <v>8.3185</v>
       </c>
       <c r="K4" t="n">
-        <v>1.3708</v>
+        <v>2.9878</v>
       </c>
       <c r="L4" t="n">
-        <v>5.3876</v>
+        <v>3.8077</v>
       </c>
       <c r="M4" t="n">
-        <v>10.5849</v>
+        <v>13.3824</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2892</v>
+        <v>0.2606</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8306</v>
+        <v>0.5087</v>
       </c>
       <c r="P4" t="n">
-        <v>25.8522</v>
+        <v>28.2233</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.841</v>
+        <v>4.3114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.9625</v>
+        <v>3.4405</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7155</v>
+        <v>13.8608</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9254</v>
+        <v>0.9595</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3007</v>
+        <v>0.3142</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8318</v>
+        <v>0.7942</v>
       </c>
       <c r="G5" t="n">
-        <v>10.2823</v>
+        <v>9.011200000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7074</v>
+        <v>1.4885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9109</v>
+        <v>0.8731</v>
       </c>
       <c r="J5" t="n">
-        <v>9.724</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>1.807</v>
+        <v>3.1017</v>
       </c>
       <c r="L5" t="n">
-        <v>5.0541</v>
+        <v>3.496</v>
       </c>
       <c r="M5" t="n">
-        <v>10.8792</v>
+        <v>12.0282</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2576</v>
+        <v>0.272</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7459</v>
+        <v>0.6632</v>
       </c>
       <c r="P5" t="n">
-        <v>26.3825</v>
+        <v>27.4311</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.3847</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3.7608</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.9744</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.3158</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.0725</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9505</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9.6191</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.9078</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9.7986</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2294</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.6392</v>
-      </c>
-      <c r="P6" t="n">
-        <v>25.2881</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.2412</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3.5677</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.4003</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7815</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2501</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.751</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9.6967</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.0266</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9441000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.2394</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.7824</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.6451</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10.6747</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.2072</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.6115</v>
-      </c>
-      <c r="P7" t="n">
-        <v>25.2419</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.1449</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.6049</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11.9437</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8117</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2349</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6981000000000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.1966</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.0186</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.6669</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8.797000000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.8909</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.1735</v>
-      </c>
-      <c r="M8" t="n">
-        <v>10.4651</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.1647</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.5006</v>
-      </c>
-      <c r="P8" t="n">
-        <v>24.2299</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.0896</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.7844</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15.596</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9579</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1882</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8002</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9.4474</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.1281</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.7965</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.954599999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.3833</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.0421</v>
-      </c>
-      <c r="M9" t="n">
-        <v>13.8416</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.3046</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.6063</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29.8332</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4.7898</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3.4041</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15.1358</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8231000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.8149</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8.7761</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.1067</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9303</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8.3185</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.9878</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.8077</v>
-      </c>
-      <c r="M10" t="n">
-        <v>13.3824</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.2606</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.5087</v>
-      </c>
-      <c r="P10" t="n">
-        <v>28.2233</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.3114</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3.4405</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.8608</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9595</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3142</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7942</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.011200000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.4885</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.8731</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8.425000000000001</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.1017</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.496</v>
-      </c>
-      <c r="M11" t="n">
-        <v>12.0282</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.6632</v>
-      </c>
-      <c r="P11" t="n">
-        <v>27.4311</v>
-      </c>
-      <c r="Q11" t="n">
         <v>4.5591</v>
       </c>
     </row>
